--- a/WebdriverProject/src/com/sai/excelfiles/registration11.xlsx
+++ b/WebdriverProject/src/com/sai/excelfiles/registration11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>firstName</t>
   </si>
@@ -121,12 +121,16 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -500,16 +504,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -590,7 +594,9 @@
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18">
       <c r="A3" s="2" t="s">
@@ -629,7 +635,9 @@
       <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="2" t="s">
@@ -668,7 +676,9 @@
       <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
